--- a/Code/Results/Cases/Case_1_115/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_115/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.52913992291188</v>
+        <v>13.10499849755848</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.428381244338174</v>
+        <v>10.51806254340979</v>
       </c>
       <c r="E2">
-        <v>9.939604391290963</v>
+        <v>16.42452409154901</v>
       </c>
       <c r="F2">
-        <v>20.56042711452655</v>
+        <v>32.34918952604533</v>
       </c>
       <c r="G2">
-        <v>21.96262812940996</v>
+        <v>32.28741231828452</v>
       </c>
       <c r="H2">
-        <v>9.115062758913357</v>
+        <v>15.31626555800419</v>
       </c>
       <c r="I2">
-        <v>17.17909434015592</v>
+        <v>27.85111940153915</v>
       </c>
       <c r="J2">
-        <v>7.290389586365248</v>
+        <v>11.70334645885426</v>
       </c>
       <c r="K2">
-        <v>13.37614958432195</v>
+        <v>9.540977062126533</v>
       </c>
       <c r="L2">
-        <v>6.245557205319031</v>
+        <v>9.215304311342999</v>
       </c>
       <c r="M2">
-        <v>9.575561924732561</v>
+        <v>14.19114561851442</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.71291396385027</v>
+        <v>23.75543092574356</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.89095894329125</v>
+        <v>12.96293748519843</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.380177390160371</v>
+        <v>10.53040863978117</v>
       </c>
       <c r="E3">
-        <v>10.04121262219462</v>
+        <v>16.46823739214567</v>
       </c>
       <c r="F3">
-        <v>20.59175330454979</v>
+        <v>32.45454654158664</v>
       </c>
       <c r="G3">
-        <v>21.91789206627088</v>
+        <v>32.40633472478095</v>
       </c>
       <c r="H3">
-        <v>9.199737513113343</v>
+        <v>15.36501161168746</v>
       </c>
       <c r="I3">
-        <v>17.50200446722419</v>
+        <v>27.9731926771347</v>
       </c>
       <c r="J3">
-        <v>7.343613490420347</v>
+        <v>11.72337599225397</v>
       </c>
       <c r="K3">
-        <v>12.74844392372414</v>
+        <v>9.24213515442953</v>
       </c>
       <c r="L3">
-        <v>6.016760271009241</v>
+        <v>9.184036116095843</v>
       </c>
       <c r="M3">
-        <v>9.234489902988214</v>
+        <v>14.14543502211589</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.81047365249793</v>
+        <v>23.84104362915687</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.48162558075209</v>
+        <v>12.87649645396858</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.352824590916518</v>
+        <v>10.53924792734677</v>
       </c>
       <c r="E4">
-        <v>10.10643074171075</v>
+        <v>16.49663856551001</v>
       </c>
       <c r="F4">
-        <v>20.62666359052896</v>
+        <v>32.52556995051417</v>
       </c>
       <c r="G4">
-        <v>21.91344735632481</v>
+        <v>32.48785409739483</v>
       </c>
       <c r="H4">
-        <v>9.25633675749217</v>
+        <v>15.39703925733887</v>
       </c>
       <c r="I4">
-        <v>17.70783926251457</v>
+        <v>28.05225745434139</v>
       </c>
       <c r="J4">
-        <v>7.377469057459118</v>
+        <v>11.7363467164755</v>
       </c>
       <c r="K4">
-        <v>12.34609911115239</v>
+        <v>9.052245619194609</v>
       </c>
       <c r="L4">
-        <v>5.873088563863151</v>
+        <v>9.165637381799254</v>
       </c>
       <c r="M4">
-        <v>9.020610711380362</v>
+        <v>14.11864349019054</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.88097209859114</v>
+        <v>23.89790533803196</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.31056701786509</v>
+        <v>12.84150238091103</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.342245962741989</v>
+        <v>10.54316711637003</v>
       </c>
       <c r="E5">
-        <v>10.13371996992117</v>
+        <v>16.50860578016531</v>
       </c>
       <c r="F5">
-        <v>20.64470916525868</v>
+        <v>32.55610384446689</v>
       </c>
       <c r="G5">
-        <v>21.91722423965307</v>
+        <v>32.52320545411406</v>
       </c>
       <c r="H5">
-        <v>9.28053130766811</v>
+        <v>15.4106186874034</v>
       </c>
       <c r="I5">
-        <v>17.79361795662541</v>
+        <v>28.08551300421956</v>
       </c>
       <c r="J5">
-        <v>7.391564129559537</v>
+        <v>11.74180197727847</v>
       </c>
       <c r="K5">
-        <v>12.17800836940905</v>
+        <v>8.97333250836834</v>
       </c>
       <c r="L5">
-        <v>5.81381988062537</v>
+        <v>9.158345349380351</v>
       </c>
       <c r="M5">
-        <v>8.932453891044455</v>
+        <v>14.10805287042042</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.91227210846727</v>
+        <v>23.92215656022656</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.28191093124556</v>
+        <v>12.83570659966947</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.340523767480353</v>
+        <v>10.54383706378372</v>
       </c>
       <c r="E6">
-        <v>10.13829436915921</v>
+        <v>16.5106167224776</v>
       </c>
       <c r="F6">
-        <v>20.64793269285931</v>
+        <v>32.56127004101775</v>
       </c>
       <c r="G6">
-        <v>21.91818284112605</v>
+        <v>32.52920408039734</v>
       </c>
       <c r="H6">
-        <v>9.284616221998236</v>
+        <v>15.41290544047409</v>
       </c>
       <c r="I6">
-        <v>17.80797609460399</v>
+        <v>28.09109770028195</v>
       </c>
       <c r="J6">
-        <v>7.3939227292767</v>
+        <v>11.74271807577554</v>
       </c>
       <c r="K6">
-        <v>12.14985158336984</v>
+        <v>8.960138954675173</v>
       </c>
       <c r="L6">
-        <v>5.803937317394309</v>
+        <v>9.157147056446368</v>
       </c>
       <c r="M6">
-        <v>8.917758961148763</v>
+        <v>14.10631425110065</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.91762208084003</v>
+        <v>23.92624865032089</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.47933562609736</v>
+        <v>12.87602353035072</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.352679620787079</v>
+        <v>10.5392994981822</v>
       </c>
       <c r="E7">
-        <v>10.10679588866774</v>
+        <v>16.49679836495911</v>
       </c>
       <c r="F7">
-        <v>20.62689165778758</v>
+        <v>32.52597530016724</v>
       </c>
       <c r="G7">
-        <v>21.91347593901437</v>
+        <v>32.48832223568326</v>
       </c>
       <c r="H7">
-        <v>9.256658515786114</v>
+        <v>15.39722025614308</v>
       </c>
       <c r="I7">
-        <v>17.70898841667829</v>
+        <v>28.05270175261601</v>
       </c>
       <c r="J7">
-        <v>7.377657935395231</v>
+        <v>11.73641960074842</v>
       </c>
       <c r="K7">
-        <v>12.34384872843386</v>
+        <v>9.051187462789189</v>
       </c>
       <c r="L7">
-        <v>5.87229205343511</v>
+        <v>9.165538200721008</v>
       </c>
       <c r="M7">
-        <v>9.019425673852458</v>
+        <v>14.1184993283283</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.8813839313891</v>
+        <v>23.89822802776103</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.31280284494193</v>
+        <v>13.05587339750793</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.411297063836022</v>
+        <v>10.52205858953592</v>
       </c>
       <c r="E8">
-        <v>9.974051822921941</v>
+        <v>16.43927303161896</v>
       </c>
       <c r="F8">
-        <v>20.56790164642232</v>
+        <v>32.38420123442097</v>
       </c>
       <c r="G8">
-        <v>21.94230653870812</v>
+        <v>32.32664896545646</v>
       </c>
       <c r="H8">
-        <v>9.143284151728766</v>
+        <v>15.33263819076467</v>
       </c>
       <c r="I8">
-        <v>17.288860736621</v>
+        <v>27.89235829030628</v>
       </c>
       <c r="J8">
-        <v>7.308498948518717</v>
+        <v>11.71011335032677</v>
       </c>
       <c r="K8">
-        <v>13.16329915129949</v>
+        <v>9.439308856200324</v>
       </c>
       <c r="L8">
-        <v>6.167375859455201</v>
+        <v>9.20435968371824</v>
       </c>
       <c r="M8">
-        <v>9.458955455212577</v>
+        <v>14.17512398921978</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.7442963259447</v>
+        <v>23.78405846581781</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.80350097243698</v>
+        <v>13.4132846952546</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.543860199614017</v>
+        <v>10.49821008037186</v>
       </c>
       <c r="E9">
-        <v>9.736175318162159</v>
+        <v>16.3388078664165</v>
       </c>
       <c r="F9">
-        <v>20.58198600858588</v>
+        <v>32.1564982038633</v>
       </c>
       <c r="G9">
-        <v>22.18996255702203</v>
+        <v>32.07731220765686</v>
       </c>
       <c r="H9">
-        <v>8.958911517334659</v>
+        <v>15.22261194073221</v>
       </c>
       <c r="I9">
-        <v>16.52527189773069</v>
+        <v>27.61044586453852</v>
       </c>
       <c r="J9">
-        <v>7.182069322240338</v>
+        <v>11.66384115160151</v>
       </c>
       <c r="K9">
-        <v>14.63146752395862</v>
+        <v>10.14659672280114</v>
       </c>
       <c r="L9">
-        <v>6.717603690522804</v>
+        <v>9.286636409094994</v>
       </c>
       <c r="M9">
-        <v>10.28073059187372</v>
+        <v>14.29598404475377</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.56385580780815</v>
+        <v>23.59427162499929</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.8060921865442</v>
+        <v>13.6767416976587</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.651676360387179</v>
+        <v>10.48672400978846</v>
       </c>
       <c r="E10">
-        <v>9.575063560457144</v>
+        <v>16.27245829683824</v>
       </c>
       <c r="F10">
-        <v>20.67861962678185</v>
+        <v>32.01995585183504</v>
       </c>
       <c r="G10">
-        <v>22.49901804479165</v>
+        <v>31.93573168774281</v>
       </c>
       <c r="H10">
-        <v>8.84863869807287</v>
+        <v>15.15187558910333</v>
       </c>
       <c r="I10">
-        <v>16.0015212844869</v>
+        <v>27.42300862798987</v>
       </c>
       <c r="J10">
-        <v>7.094584220971164</v>
+        <v>11.63305419656798</v>
       </c>
       <c r="K10">
-        <v>15.62091237041788</v>
+        <v>10.62985144544308</v>
       </c>
       <c r="L10">
-        <v>7.100917371827756</v>
+        <v>9.350556286864265</v>
       </c>
       <c r="M10">
-        <v>10.85448393553198</v>
+        <v>14.39035517978081</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.49126526203265</v>
+        <v>23.47564845109961</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.24141132693157</v>
+        <v>13.79635940405449</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.70290505986287</v>
+        <v>10.48280062773545</v>
       </c>
       <c r="E11">
-        <v>9.504736354759036</v>
+        <v>16.2438814293013</v>
       </c>
       <c r="F11">
-        <v>20.74278581567201</v>
+        <v>31.96453119426475</v>
       </c>
       <c r="G11">
-        <v>22.66917650638127</v>
+        <v>31.88042233339938</v>
       </c>
       <c r="H11">
-        <v>8.804429181035381</v>
+        <v>15.12188237887412</v>
       </c>
       <c r="I11">
-        <v>15.77152568556413</v>
+        <v>27.34198290987657</v>
       </c>
       <c r="J11">
-        <v>7.055913253636891</v>
+        <v>11.61973879368934</v>
       </c>
       <c r="K11">
-        <v>16.05100406697772</v>
+        <v>10.84116756671125</v>
       </c>
       <c r="L11">
-        <v>7.27014254128549</v>
+        <v>9.380326851396777</v>
       </c>
       <c r="M11">
-        <v>11.10804091443433</v>
+        <v>14.43440551350363</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.47262553680898</v>
+        <v>23.42620845469214</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.40323228858689</v>
+        <v>13.84158748749141</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.722609920880304</v>
+        <v>10.48150132623885</v>
       </c>
       <c r="E12">
-        <v>9.478532239478351</v>
+        <v>16.23329005466547</v>
       </c>
       <c r="F12">
-        <v>20.77010417878565</v>
+        <v>31.94450628466766</v>
       </c>
       <c r="G12">
-        <v>22.73800096362166</v>
+        <v>31.86079091579351</v>
       </c>
       <c r="H12">
-        <v>8.788588193146124</v>
+        <v>15.11083849036051</v>
       </c>
       <c r="I12">
-        <v>15.68564241129991</v>
+        <v>27.31190818266288</v>
       </c>
       <c r="J12">
-        <v>7.04142786340262</v>
+        <v>11.61479529324858</v>
       </c>
       <c r="K12">
-        <v>16.21095229318658</v>
+        <v>10.91991790602098</v>
       </c>
       <c r="L12">
-        <v>7.333442415026709</v>
+        <v>9.391694370010097</v>
       </c>
       <c r="M12">
-        <v>11.20292082570553</v>
+        <v>14.45123917492089</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.46775008878573</v>
+        <v>23.40813761617123</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.3685162778273</v>
+        <v>13.83185041594036</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.718352666820492</v>
+        <v>10.48177287689054</v>
       </c>
       <c r="E13">
-        <v>9.484156739017084</v>
+        <v>16.23556087808998</v>
       </c>
       <c r="F13">
-        <v>20.76408459517226</v>
+        <v>31.94877614884349</v>
       </c>
       <c r="G13">
-        <v>22.72298116614715</v>
+        <v>31.86496042006507</v>
       </c>
       <c r="H13">
-        <v>8.79195906684911</v>
+        <v>15.11320303415883</v>
       </c>
       <c r="I13">
-        <v>15.70408462142118</v>
+        <v>27.31835830287835</v>
       </c>
       <c r="J13">
-        <v>7.044540560642199</v>
+        <v>11.61585557922431</v>
       </c>
       <c r="K13">
-        <v>16.17663489662291</v>
+        <v>10.90301478402568</v>
       </c>
       <c r="L13">
-        <v>7.319845035826532</v>
+        <v>9.389242079136695</v>
       </c>
       <c r="M13">
-        <v>11.18253823675714</v>
+        <v>14.44760708595296</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.4687011660477</v>
+        <v>23.41200052926323</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.25478523980819</v>
+        <v>13.80008191998854</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.704520113075546</v>
+        <v>10.48269000236234</v>
       </c>
       <c r="E14">
-        <v>9.502571955278432</v>
+        <v>16.24300546458193</v>
       </c>
       <c r="F14">
-        <v>20.74497215038453</v>
+        <v>31.96286442174885</v>
       </c>
       <c r="G14">
-        <v>22.67475004304853</v>
+        <v>31.87878090252433</v>
       </c>
       <c r="H14">
-        <v>8.803107630325782</v>
+        <v>15.12096750255319</v>
       </c>
       <c r="I14">
-        <v>15.76443559331727</v>
+        <v>27.33949646993333</v>
       </c>
       <c r="J14">
-        <v>7.054718376476298</v>
+        <v>11.61933011220932</v>
       </c>
       <c r="K14">
-        <v>16.06422178149113</v>
+        <v>10.84767210845398</v>
       </c>
       <c r="L14">
-        <v>7.275366150621022</v>
+        <v>9.381260211627454</v>
       </c>
       <c r="M14">
-        <v>11.11586986422504</v>
+        <v>14.43578741604407</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.4721800157113</v>
+        <v>23.42470870456945</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.18472680722121</v>
+        <v>13.78061283215029</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.696086830664447</v>
+        <v>10.48327601875411</v>
       </c>
       <c r="E15">
-        <v>9.513907491135262</v>
+        <v>16.24759542465869</v>
       </c>
       <c r="F15">
-        <v>20.73366183308967</v>
+        <v>31.9716193703294</v>
       </c>
       <c r="G15">
-        <v>22.64578247738631</v>
+        <v>31.88741748425848</v>
       </c>
       <c r="H15">
-        <v>8.810055032336827</v>
+        <v>15.12576433173036</v>
       </c>
       <c r="I15">
-        <v>15.80156080235984</v>
+        <v>27.35252332790335</v>
       </c>
       <c r="J15">
-        <v>7.060973113396591</v>
+        <v>11.62147121194407</v>
       </c>
       <c r="K15">
-        <v>15.99498445602029</v>
+        <v>10.81360640852799</v>
       </c>
       <c r="L15">
-        <v>7.248018570090271</v>
+        <v>9.376383167012191</v>
       </c>
       <c r="M15">
-        <v>11.07488375085901</v>
+        <v>14.42856716899405</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.47459864388217</v>
+        <v>23.43257763127436</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.77722160020443</v>
+        <v>13.66891672183603</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.648371673815443</v>
+        <v>10.48700653938565</v>
       </c>
       <c r="E16">
-        <v>9.579719327781081</v>
+        <v>16.27435810317661</v>
       </c>
       <c r="F16">
-        <v>20.67484270712006</v>
+        <v>32.02371270146471</v>
       </c>
       <c r="G16">
-        <v>22.48850488369362</v>
+        <v>31.93952976153519</v>
       </c>
       <c r="H16">
-        <v>8.851651405349038</v>
+        <v>15.15387965779196</v>
       </c>
       <c r="I16">
-        <v>16.01672012848369</v>
+        <v>27.42838902150256</v>
       </c>
       <c r="J16">
-        <v>7.097133828384215</v>
+        <v>11.63393823191038</v>
       </c>
       <c r="K16">
-        <v>15.5923984632118</v>
+        <v>10.61586600576961</v>
       </c>
       <c r="L16">
-        <v>7.089750814305231</v>
+        <v>9.348624180105128</v>
       </c>
       <c r="M16">
-        <v>10.83775770124005</v>
+        <v>14.38749822243134</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.49278259544597</v>
+        <v>23.4789705326021</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.52188025906667</v>
+        <v>13.60031038971499</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.619653303837744</v>
+        <v>10.48962794323302</v>
       </c>
       <c r="E17">
-        <v>9.620852433520808</v>
+        <v>16.29118683084044</v>
       </c>
       <c r="F17">
-        <v>20.64401735058558</v>
+        <v>32.05738449784007</v>
       </c>
       <c r="G17">
-        <v>22.39969610988718</v>
+        <v>31.97383242349597</v>
       </c>
       <c r="H17">
-        <v>8.878724876432056</v>
+        <v>15.17168692352655</v>
       </c>
       <c r="I17">
-        <v>16.15084408436134</v>
+        <v>27.47601493925819</v>
       </c>
       <c r="J17">
-        <v>7.119603295905668</v>
+        <v>11.64176269605384</v>
       </c>
       <c r="K17">
-        <v>15.34026711520162</v>
+        <v>10.49234267803062</v>
       </c>
       <c r="L17">
-        <v>6.991308631902675</v>
+        <v>9.331768502746783</v>
       </c>
       <c r="M17">
-        <v>10.69033141313977</v>
+        <v>14.362584835263</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.50770260795622</v>
+        <v>23.50858985420405</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.37306167395067</v>
+        <v>13.56083025686831</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.603341216012749</v>
+        <v>10.4912582761195</v>
       </c>
       <c r="E18">
-        <v>9.644789940209117</v>
+        <v>16.30101747416367</v>
       </c>
       <c r="F18">
-        <v>20.62818284975879</v>
+        <v>32.07738116747937</v>
       </c>
       <c r="G18">
-        <v>22.35139151833884</v>
+        <v>31.99441832346491</v>
       </c>
       <c r="H18">
-        <v>8.894854455250414</v>
+        <v>15.18213488375872</v>
       </c>
       <c r="I18">
-        <v>16.22876453305026</v>
+        <v>27.50380734221508</v>
       </c>
       <c r="J18">
-        <v>7.132633381965858</v>
+        <v>11.64632806766326</v>
       </c>
       <c r="K18">
-        <v>15.19336589291165</v>
+        <v>10.42049584732448</v>
       </c>
       <c r="L18">
-        <v>6.934204990480944</v>
+        <v>9.322139143964685</v>
       </c>
       <c r="M18">
-        <v>10.60483812390978</v>
+        <v>14.34836128697111</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.5176309141109</v>
+        <v>23.52605172107265</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.32234022271809</v>
+        <v>13.54746068925949</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.597853839053437</v>
+        <v>10.49183135361032</v>
       </c>
       <c r="E19">
-        <v>9.652942629789365</v>
+        <v>16.30437195688482</v>
       </c>
       <c r="F19">
-        <v>20.62314354433497</v>
+        <v>32.08425977873868</v>
       </c>
       <c r="G19">
-        <v>22.33550871501426</v>
+        <v>32.00153520126142</v>
       </c>
       <c r="H19">
-        <v>8.90041013159178</v>
+        <v>15.18570772147933</v>
       </c>
       <c r="I19">
-        <v>16.25527970083373</v>
+        <v>27.51328599710285</v>
       </c>
       <c r="J19">
-        <v>7.137063497941202</v>
+        <v>11.64788499188013</v>
       </c>
       <c r="K19">
-        <v>15.14330585577816</v>
+        <v>10.39603390911926</v>
       </c>
       <c r="L19">
-        <v>6.914789230767352</v>
+        <v>9.318890241198458</v>
       </c>
       <c r="M19">
-        <v>10.57577392020471</v>
+        <v>14.3435638905262</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.52122029621611</v>
+        <v>23.53203708711778</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.54926423044203</v>
+        <v>13.60761593676907</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.622689165293931</v>
+        <v>10.48933621025139</v>
       </c>
       <c r="E20">
-        <v>9.616444879077445</v>
+        <v>16.28937974123646</v>
       </c>
       <c r="F20">
-        <v>20.64710175023083</v>
+        <v>32.05373491238129</v>
       </c>
       <c r="G20">
-        <v>22.4088616162665</v>
+        <v>31.97009222503227</v>
       </c>
       <c r="H20">
-        <v>8.875784836177719</v>
+        <v>15.16977002373798</v>
       </c>
       <c r="I20">
-        <v>16.13648590751341</v>
+        <v>27.47090377296198</v>
       </c>
       <c r="J20">
-        <v>7.117200412163277</v>
+        <v>11.64092304986762</v>
       </c>
       <c r="K20">
-        <v>15.36730202963111</v>
+        <v>10.50557503696384</v>
       </c>
       <c r="L20">
-        <v>7.001838211739589</v>
+        <v>9.333556071271</v>
       </c>
       <c r="M20">
-        <v>10.70609789862412</v>
+        <v>14.36522600000905</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.50597414138304</v>
+        <v>23.50539277190285</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.28827314975787</v>
+        <v>13.80941523664084</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.708574841131104</v>
+        <v>10.48241556804486</v>
       </c>
       <c r="E21">
-        <v>9.497151352729022</v>
+        <v>16.24081257197918</v>
       </c>
       <c r="F21">
-        <v>20.75050308895494</v>
+        <v>31.95870020352593</v>
       </c>
       <c r="G21">
-        <v>22.68879656043126</v>
+        <v>31.87468581864241</v>
       </c>
       <c r="H21">
-        <v>8.799808231597753</v>
+        <v>15.11867837367099</v>
       </c>
       <c r="I21">
-        <v>15.74667597039513</v>
+        <v>27.33327119246331</v>
       </c>
       <c r="J21">
-        <v>7.051724633064707</v>
+        <v>11.61830688090675</v>
       </c>
       <c r="K21">
-        <v>16.09731970530624</v>
+        <v>10.86396241035967</v>
       </c>
       <c r="L21">
-        <v>7.288452204112848</v>
+        <v>9.383602172379307</v>
       </c>
       <c r="M21">
-        <v>11.13548330572487</v>
+        <v>14.43925506139755</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.47109802271347</v>
+        <v>23.42095833143518</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.75361654365721</v>
+        <v>13.94088728859338</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.766483673848195</v>
+        <v>10.47897860526986</v>
       </c>
       <c r="E22">
-        <v>9.421677427343541</v>
+        <v>16.21041172121587</v>
       </c>
       <c r="F22">
-        <v>20.83573442568195</v>
+        <v>31.90220434478407</v>
       </c>
       <c r="G22">
-        <v>22.89738553160853</v>
+        <v>31.81998761434212</v>
       </c>
       <c r="H22">
-        <v>8.755422559465167</v>
+        <v>15.08711646808041</v>
       </c>
       <c r="I22">
-        <v>15.49898650201654</v>
+        <v>27.2468631478571</v>
       </c>
       <c r="J22">
-        <v>7.009854380567697</v>
+        <v>11.60410132242885</v>
       </c>
       <c r="K22">
-        <v>16.55740777367999</v>
+        <v>11.09076649597379</v>
       </c>
       <c r="L22">
-        <v>7.471197748941583</v>
+        <v>9.416855714771057</v>
       </c>
       <c r="M22">
-        <v>11.40946254152291</v>
+        <v>14.48852370751025</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.46108316910361</v>
+        <v>23.36957047887456</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.50687807360952</v>
+        <v>13.8707677164026</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.73541679930702</v>
+        <v>10.48071387081184</v>
       </c>
       <c r="E23">
-        <v>9.461730843481174</v>
+        <v>16.22651484382805</v>
       </c>
       <c r="F23">
-        <v>20.78859312975018</v>
+        <v>31.93184309030726</v>
       </c>
       <c r="G23">
-        <v>22.78367093626398</v>
+        <v>31.8484790616021</v>
       </c>
       <c r="H23">
-        <v>8.778614618079283</v>
+        <v>15.10379436288962</v>
       </c>
       <c r="I23">
-        <v>15.63052666410442</v>
+        <v>27.29265717087307</v>
       </c>
       <c r="J23">
-        <v>7.03211815203057</v>
+        <v>11.61163058671309</v>
       </c>
       <c r="K23">
-        <v>16.31341813423049</v>
+        <v>10.97040972915102</v>
       </c>
       <c r="L23">
-        <v>7.374093698126511</v>
+        <v>9.399059642448691</v>
       </c>
       <c r="M23">
-        <v>11.26386234435361</v>
+        <v>14.46214980920501</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.46522064517282</v>
+        <v>23.3966496734862</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.53689022402191</v>
+        <v>13.604313212855</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.621316033474351</v>
+        <v>10.48946771876681</v>
       </c>
       <c r="E24">
-        <v>9.618436632682098</v>
+        <v>16.29019624176396</v>
       </c>
       <c r="F24">
-        <v>20.64570142301397</v>
+        <v>32.05538290180894</v>
       </c>
       <c r="G24">
-        <v>22.40470932722077</v>
+        <v>31.97178047523373</v>
       </c>
       <c r="H24">
-        <v>8.877112272822501</v>
+        <v>15.17063599895685</v>
       </c>
       <c r="I24">
-        <v>16.14297471548194</v>
+        <v>27.47321324891972</v>
       </c>
       <c r="J24">
-        <v>7.118286406503533</v>
+        <v>11.64130244523279</v>
       </c>
       <c r="K24">
-        <v>15.3550856078169</v>
+        <v>10.49959527432975</v>
       </c>
       <c r="L24">
-        <v>6.997079367492678</v>
+        <v>9.332747720502342</v>
       </c>
       <c r="M24">
-        <v>10.69897215776327</v>
+        <v>14.36403161889647</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.50675138300996</v>
+        <v>23.50683682309417</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.4162103914525</v>
+        <v>13.31629793184839</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.506142039402413</v>
+        <v>10.50359901627106</v>
       </c>
       <c r="E25">
-        <v>9.798128601961642</v>
+        <v>16.36467149089358</v>
       </c>
       <c r="F25">
-        <v>20.56353131140131</v>
+        <v>32.21270289331633</v>
       </c>
       <c r="G25">
-        <v>22.1013579354797</v>
+        <v>32.13748055303582</v>
       </c>
       <c r="H25">
-        <v>9.004522926802514</v>
+        <v>15.25060106608699</v>
       </c>
       <c r="I25">
-        <v>16.72534869207501</v>
+        <v>27.68324385356134</v>
       </c>
       <c r="J25">
-        <v>7.215308320346975</v>
+        <v>11.67579324507264</v>
       </c>
       <c r="K25">
-        <v>14.24968645145371</v>
+        <v>9.961413652969313</v>
       </c>
       <c r="L25">
-        <v>6.572198901121089</v>
+        <v>9.263748142039855</v>
       </c>
       <c r="M25">
-        <v>10.06333172270559</v>
+        <v>14.26227842802447</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.60258815322815</v>
+        <v>23.64196077511367</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_115/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_115/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.10499849755848</v>
+        <v>11.52913992291193</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.51806254340979</v>
+        <v>6.428381244338223</v>
       </c>
       <c r="E2">
-        <v>16.42452409154901</v>
+        <v>9.939604391290969</v>
       </c>
       <c r="F2">
-        <v>32.34918952604533</v>
+        <v>20.56042711452664</v>
       </c>
       <c r="G2">
-        <v>32.28741231828452</v>
+        <v>21.96262812941013</v>
       </c>
       <c r="H2">
-        <v>15.31626555800419</v>
+        <v>9.115062758913416</v>
       </c>
       <c r="I2">
-        <v>27.85111940153915</v>
+        <v>17.17909434015605</v>
       </c>
       <c r="J2">
-        <v>11.70334645885426</v>
+        <v>7.290389586365245</v>
       </c>
       <c r="K2">
-        <v>9.540977062126533</v>
+        <v>13.3761495843219</v>
       </c>
       <c r="L2">
-        <v>9.215304311342999</v>
+        <v>6.245557205319011</v>
       </c>
       <c r="M2">
-        <v>14.19114561851442</v>
+        <v>9.575561924732574</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.75543092574356</v>
+        <v>14.71291396385035</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.96293748519843</v>
+        <v>10.89095894329128</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.53040863978117</v>
+        <v>6.380177390160243</v>
       </c>
       <c r="E3">
-        <v>16.46823739214567</v>
+        <v>10.04121262219462</v>
       </c>
       <c r="F3">
-        <v>32.45454654158664</v>
+        <v>20.59175330454983</v>
       </c>
       <c r="G3">
-        <v>32.40633472478095</v>
+        <v>21.91789206627085</v>
       </c>
       <c r="H3">
-        <v>15.36501161168746</v>
+        <v>9.199737513113339</v>
       </c>
       <c r="I3">
-        <v>27.9731926771347</v>
+        <v>17.50200446722411</v>
       </c>
       <c r="J3">
-        <v>11.72337599225397</v>
+        <v>7.343613490420381</v>
       </c>
       <c r="K3">
-        <v>9.24213515442953</v>
+        <v>12.74844392372402</v>
       </c>
       <c r="L3">
-        <v>9.184036116095843</v>
+        <v>6.016760271009293</v>
       </c>
       <c r="M3">
-        <v>14.14543502211589</v>
+        <v>9.234489902988267</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.84104362915687</v>
+        <v>14.81047365249794</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.87649645396858</v>
+        <v>10.48162558075206</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.53924792734677</v>
+        <v>6.352824590916402</v>
       </c>
       <c r="E4">
-        <v>16.49663856551001</v>
+        <v>10.10643074171049</v>
       </c>
       <c r="F4">
-        <v>32.52556995051417</v>
+        <v>20.62666359052861</v>
       </c>
       <c r="G4">
-        <v>32.48785409739483</v>
+        <v>21.91344735632448</v>
       </c>
       <c r="H4">
-        <v>15.39703925733887</v>
+        <v>9.256336757492045</v>
       </c>
       <c r="I4">
-        <v>28.05225745434139</v>
+        <v>17.70783926251431</v>
       </c>
       <c r="J4">
-        <v>11.7363467164755</v>
+        <v>7.377469057458954</v>
       </c>
       <c r="K4">
-        <v>9.052245619194609</v>
+        <v>12.34609911115239</v>
       </c>
       <c r="L4">
-        <v>9.165637381799254</v>
+        <v>5.873088563863071</v>
       </c>
       <c r="M4">
-        <v>14.11864349019054</v>
+        <v>9.020610711380275</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.89790533803196</v>
+        <v>14.88097209859091</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.84150238091103</v>
+        <v>10.31056701786512</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10.54316711637003</v>
+        <v>6.342245962741762</v>
       </c>
       <c r="E5">
-        <v>16.50860578016531</v>
+        <v>10.13371996992111</v>
       </c>
       <c r="F5">
-        <v>32.55610384446689</v>
+        <v>20.64470916525861</v>
       </c>
       <c r="G5">
-        <v>32.52320545411406</v>
+        <v>21.91722423965317</v>
       </c>
       <c r="H5">
-        <v>15.4106186874034</v>
+        <v>9.280531307668099</v>
       </c>
       <c r="I5">
-        <v>28.08551300421956</v>
+        <v>17.79361795662541</v>
       </c>
       <c r="J5">
-        <v>11.74180197727847</v>
+        <v>7.391564129559571</v>
       </c>
       <c r="K5">
-        <v>8.97333250836834</v>
+        <v>12.178008369409</v>
       </c>
       <c r="L5">
-        <v>9.158345349380351</v>
+        <v>5.813819880625364</v>
       </c>
       <c r="M5">
-        <v>14.10805287042042</v>
+        <v>8.932453891044469</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.92215656022656</v>
+        <v>14.91227210846728</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.83570659966947</v>
+        <v>10.28191093124551</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>10.54383706378372</v>
+        <v>6.34052376748035</v>
       </c>
       <c r="E6">
-        <v>16.5106167224776</v>
+        <v>10.13829436915914</v>
       </c>
       <c r="F6">
-        <v>32.56127004101775</v>
+        <v>20.64793269285928</v>
       </c>
       <c r="G6">
-        <v>32.52920408039734</v>
+        <v>21.91818284112611</v>
       </c>
       <c r="H6">
-        <v>15.41290544047409</v>
+        <v>9.284616221998235</v>
       </c>
       <c r="I6">
-        <v>28.09109770028195</v>
+        <v>17.80797609460395</v>
       </c>
       <c r="J6">
-        <v>11.74271807577554</v>
+        <v>7.393922729276733</v>
       </c>
       <c r="K6">
-        <v>8.960138954675173</v>
+        <v>12.14985158336981</v>
       </c>
       <c r="L6">
-        <v>9.157147056446368</v>
+        <v>5.803937317394343</v>
       </c>
       <c r="M6">
-        <v>14.10631425110065</v>
+        <v>8.917758961148754</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.92624865032089</v>
+        <v>14.91762208084005</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.87602353035072</v>
+        <v>10.47933562609736</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.5392994981822</v>
+        <v>6.352679620786899</v>
       </c>
       <c r="E7">
-        <v>16.49679836495911</v>
+        <v>10.10679588866767</v>
       </c>
       <c r="F7">
-        <v>32.52597530016724</v>
+        <v>20.62689165778746</v>
       </c>
       <c r="G7">
-        <v>32.48832223568326</v>
+        <v>21.91347593901429</v>
       </c>
       <c r="H7">
-        <v>15.39722025614308</v>
+        <v>9.256658515786107</v>
       </c>
       <c r="I7">
-        <v>28.05270175261601</v>
+        <v>17.70898841667829</v>
       </c>
       <c r="J7">
-        <v>11.73641960074842</v>
+        <v>7.377657935395231</v>
       </c>
       <c r="K7">
-        <v>9.051187462789189</v>
+        <v>12.34384872843389</v>
       </c>
       <c r="L7">
-        <v>9.165538200721008</v>
+        <v>5.872292053435067</v>
       </c>
       <c r="M7">
-        <v>14.1184993283283</v>
+        <v>9.019425673852421</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.89822802776103</v>
+        <v>14.88138393138904</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.05587339750793</v>
+        <v>11.31280284494192</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.52205858953592</v>
+        <v>6.411297063835904</v>
       </c>
       <c r="E8">
-        <v>16.43927303161896</v>
+        <v>9.974051822921941</v>
       </c>
       <c r="F8">
-        <v>32.38420123442097</v>
+        <v>20.56790164642233</v>
       </c>
       <c r="G8">
-        <v>32.32664896545646</v>
+        <v>21.94230653870812</v>
       </c>
       <c r="H8">
-        <v>15.33263819076467</v>
+        <v>9.143284151728887</v>
       </c>
       <c r="I8">
-        <v>27.89235829030628</v>
+        <v>17.28886073662103</v>
       </c>
       <c r="J8">
-        <v>11.71011335032677</v>
+        <v>7.308498948518786</v>
       </c>
       <c r="K8">
-        <v>9.439308856200324</v>
+        <v>13.16329915129951</v>
       </c>
       <c r="L8">
-        <v>9.20435968371824</v>
+        <v>6.167375859455206</v>
       </c>
       <c r="M8">
-        <v>14.17512398921978</v>
+        <v>9.45895545521258</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.78405846581781</v>
+        <v>14.7442963259448</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.4132846952546</v>
+        <v>12.803500972437</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.49821008037186</v>
+        <v>6.543860199614006</v>
       </c>
       <c r="E9">
-        <v>16.3388078664165</v>
+        <v>9.73617531816223</v>
       </c>
       <c r="F9">
-        <v>32.1564982038633</v>
+        <v>20.58198600858583</v>
       </c>
       <c r="G9">
-        <v>32.07731220765686</v>
+        <v>22.18996255702192</v>
       </c>
       <c r="H9">
-        <v>15.22261194073221</v>
+        <v>8.958911517334538</v>
       </c>
       <c r="I9">
-        <v>27.61044586453852</v>
+        <v>16.52527189773062</v>
       </c>
       <c r="J9">
-        <v>11.66384115160151</v>
+        <v>7.182069322240406</v>
       </c>
       <c r="K9">
-        <v>10.14659672280114</v>
+        <v>14.63146752395861</v>
       </c>
       <c r="L9">
-        <v>9.286636409094994</v>
+        <v>6.717603690522828</v>
       </c>
       <c r="M9">
-        <v>14.29598404475377</v>
+        <v>10.28073059187376</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.59427162499929</v>
+        <v>14.56385580780807</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.6767416976587</v>
+        <v>13.80609218654424</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.48672400978846</v>
+        <v>6.651676360387275</v>
       </c>
       <c r="E10">
-        <v>16.27245829683824</v>
+        <v>9.575063560457275</v>
       </c>
       <c r="F10">
-        <v>32.01995585183504</v>
+        <v>20.67861962678192</v>
       </c>
       <c r="G10">
-        <v>31.93573168774281</v>
+        <v>22.49901804479164</v>
       </c>
       <c r="H10">
-        <v>15.15187558910333</v>
+        <v>8.848638698072921</v>
       </c>
       <c r="I10">
-        <v>27.42300862798987</v>
+        <v>16.00152128448709</v>
       </c>
       <c r="J10">
-        <v>11.63305419656798</v>
+        <v>7.094584220971233</v>
       </c>
       <c r="K10">
-        <v>10.62985144544308</v>
+        <v>15.62091237041786</v>
       </c>
       <c r="L10">
-        <v>9.350556286864265</v>
+        <v>7.100917371827745</v>
       </c>
       <c r="M10">
-        <v>14.39035517978081</v>
+        <v>10.854483935532</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.47564845109961</v>
+        <v>14.49126526203269</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.79635940405449</v>
+        <v>14.24141132693157</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.48280062773545</v>
+        <v>6.702905059862931</v>
       </c>
       <c r="E11">
-        <v>16.2438814293013</v>
+        <v>9.504736354759041</v>
       </c>
       <c r="F11">
-        <v>31.96453119426475</v>
+        <v>20.74278581567204</v>
       </c>
       <c r="G11">
-        <v>31.88042233339938</v>
+        <v>22.66917650638133</v>
       </c>
       <c r="H11">
-        <v>15.12188237887412</v>
+        <v>8.804429181035383</v>
       </c>
       <c r="I11">
-        <v>27.34198290987657</v>
+        <v>15.77152568556414</v>
       </c>
       <c r="J11">
-        <v>11.61973879368934</v>
+        <v>7.055913253636891</v>
       </c>
       <c r="K11">
-        <v>10.84116756671125</v>
+        <v>16.05100406697774</v>
       </c>
       <c r="L11">
-        <v>9.380326851396777</v>
+        <v>7.270142541285493</v>
       </c>
       <c r="M11">
-        <v>14.43440551350363</v>
+        <v>11.10804091443433</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.42620845469214</v>
+        <v>14.472625536809</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.84158748749141</v>
+        <v>14.40323228858689</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.48150132623885</v>
+        <v>6.7226099208803</v>
       </c>
       <c r="E12">
-        <v>16.23329005466547</v>
+        <v>9.478532239478415</v>
       </c>
       <c r="F12">
-        <v>31.94450628466766</v>
+        <v>20.7701041787856</v>
       </c>
       <c r="G12">
-        <v>31.86079091579351</v>
+        <v>22.73800096362157</v>
       </c>
       <c r="H12">
-        <v>15.11083849036051</v>
+        <v>8.788588193146063</v>
       </c>
       <c r="I12">
-        <v>27.31190818266288</v>
+        <v>15.68564241129983</v>
       </c>
       <c r="J12">
-        <v>11.61479529324858</v>
+        <v>7.041427863402655</v>
       </c>
       <c r="K12">
-        <v>10.91991790602098</v>
+        <v>16.2109522931866</v>
       </c>
       <c r="L12">
-        <v>9.391694370010097</v>
+        <v>7.33344241502671</v>
       </c>
       <c r="M12">
-        <v>14.45123917492089</v>
+        <v>11.20292082570553</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.40813761617123</v>
+        <v>14.46775008878567</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.83185041594036</v>
+        <v>14.36851627782729</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.48177287689054</v>
+        <v>6.718352666820554</v>
       </c>
       <c r="E13">
-        <v>16.23556087808998</v>
+        <v>9.48415673901715</v>
       </c>
       <c r="F13">
-        <v>31.94877614884349</v>
+        <v>20.76408459517234</v>
       </c>
       <c r="G13">
-        <v>31.86496042006507</v>
+        <v>22.72298116614722</v>
       </c>
       <c r="H13">
-        <v>15.11320303415883</v>
+        <v>8.791959066849167</v>
       </c>
       <c r="I13">
-        <v>27.31835830287835</v>
+        <v>15.7040846214212</v>
       </c>
       <c r="J13">
-        <v>11.61585557922431</v>
+        <v>7.044540560642199</v>
       </c>
       <c r="K13">
-        <v>10.90301478402568</v>
+        <v>16.17663489662288</v>
       </c>
       <c r="L13">
-        <v>9.389242079136695</v>
+        <v>7.319845035826574</v>
       </c>
       <c r="M13">
-        <v>14.44760708595296</v>
+        <v>11.18253823675716</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.41200052926323</v>
+        <v>14.46870116604775</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.80008191998854</v>
+        <v>14.25478523980816</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.48269000236234</v>
+        <v>6.704520113075402</v>
       </c>
       <c r="E14">
-        <v>16.24300546458193</v>
+        <v>9.502571955278372</v>
       </c>
       <c r="F14">
-        <v>31.96286442174885</v>
+        <v>20.74497215038458</v>
       </c>
       <c r="G14">
-        <v>31.87878090252433</v>
+        <v>22.67475004304868</v>
       </c>
       <c r="H14">
-        <v>15.12096750255319</v>
+        <v>8.803107630325893</v>
       </c>
       <c r="I14">
-        <v>27.33949646993333</v>
+        <v>15.76443559331733</v>
       </c>
       <c r="J14">
-        <v>11.61933011220932</v>
+        <v>7.054718376476298</v>
       </c>
       <c r="K14">
-        <v>10.84767210845398</v>
+        <v>16.06422178149111</v>
       </c>
       <c r="L14">
-        <v>9.381260211627454</v>
+        <v>7.275366150621037</v>
       </c>
       <c r="M14">
-        <v>14.43578741604407</v>
+        <v>11.11586986422503</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.42470870456945</v>
+        <v>14.47218001571136</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.78061283215029</v>
+        <v>14.1847268072212</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.48327601875411</v>
+        <v>6.696086830664487</v>
       </c>
       <c r="E15">
-        <v>16.24759542465869</v>
+        <v>9.513907491135324</v>
       </c>
       <c r="F15">
-        <v>31.9716193703294</v>
+        <v>20.73366183308969</v>
       </c>
       <c r="G15">
-        <v>31.88741748425848</v>
+        <v>22.64578247738634</v>
       </c>
       <c r="H15">
-        <v>15.12576433173036</v>
+        <v>8.810055032336827</v>
       </c>
       <c r="I15">
-        <v>27.35252332790335</v>
+        <v>15.8015608023599</v>
       </c>
       <c r="J15">
-        <v>11.62147121194407</v>
+        <v>7.060973113396626</v>
       </c>
       <c r="K15">
-        <v>10.81360640852799</v>
+        <v>15.9949844560203</v>
       </c>
       <c r="L15">
-        <v>9.376383167012191</v>
+        <v>7.248018570090274</v>
       </c>
       <c r="M15">
-        <v>14.42856716899405</v>
+        <v>11.07488375085902</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.43257763127436</v>
+        <v>14.47459864388219</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.66891672183603</v>
+        <v>13.77722160020441</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.48700653938565</v>
+        <v>6.64837167381546</v>
       </c>
       <c r="E16">
-        <v>16.27435810317661</v>
+        <v>9.579719327780953</v>
       </c>
       <c r="F16">
-        <v>32.02371270146471</v>
+        <v>20.67484270712006</v>
       </c>
       <c r="G16">
-        <v>31.93952976153519</v>
+        <v>22.48850488369361</v>
       </c>
       <c r="H16">
-        <v>15.15387965779196</v>
+        <v>8.851651405349035</v>
       </c>
       <c r="I16">
-        <v>27.42838902150256</v>
+        <v>16.01672012848353</v>
       </c>
       <c r="J16">
-        <v>11.63393823191038</v>
+        <v>7.097133828384116</v>
       </c>
       <c r="K16">
-        <v>10.61586600576961</v>
+        <v>15.59239846321176</v>
       </c>
       <c r="L16">
-        <v>9.348624180105128</v>
+        <v>7.089750814305265</v>
       </c>
       <c r="M16">
-        <v>14.38749822243134</v>
+        <v>10.83775770124004</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.4789705326021</v>
+        <v>14.49278259544596</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.60031038971499</v>
+        <v>13.52188025906667</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.48962794323302</v>
+        <v>6.61965330383774</v>
       </c>
       <c r="E17">
-        <v>16.29118683084044</v>
+        <v>9.62085243352087</v>
       </c>
       <c r="F17">
-        <v>32.05738449784007</v>
+        <v>20.64401735058549</v>
       </c>
       <c r="G17">
-        <v>31.97383242349597</v>
+        <v>22.39969610988719</v>
       </c>
       <c r="H17">
-        <v>15.17168692352655</v>
+        <v>8.87872487643194</v>
       </c>
       <c r="I17">
-        <v>27.47601493925819</v>
+        <v>16.1508440843613</v>
       </c>
       <c r="J17">
-        <v>11.64176269605384</v>
+        <v>7.119603295905735</v>
       </c>
       <c r="K17">
-        <v>10.49234267803062</v>
+        <v>15.34026711520165</v>
       </c>
       <c r="L17">
-        <v>9.331768502746783</v>
+        <v>6.991308631902665</v>
       </c>
       <c r="M17">
-        <v>14.362584835263</v>
+        <v>10.69033141313977</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.50858985420405</v>
+        <v>14.50770260795614</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.56083025686831</v>
+        <v>13.37306167395068</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.4912582761195</v>
+        <v>6.603341216012801</v>
       </c>
       <c r="E18">
-        <v>16.30101747416367</v>
+        <v>9.644789940209119</v>
       </c>
       <c r="F18">
-        <v>32.07738116747937</v>
+        <v>20.62818284975883</v>
       </c>
       <c r="G18">
-        <v>31.99441832346491</v>
+        <v>22.3513915183388</v>
       </c>
       <c r="H18">
-        <v>15.18213488375872</v>
+        <v>8.89485445525048</v>
       </c>
       <c r="I18">
-        <v>27.50380734221508</v>
+        <v>16.22876453305031</v>
       </c>
       <c r="J18">
-        <v>11.64632806766326</v>
+        <v>7.132633381965858</v>
       </c>
       <c r="K18">
-        <v>10.42049584732448</v>
+        <v>15.19336589291167</v>
       </c>
       <c r="L18">
-        <v>9.322139143964685</v>
+        <v>6.934204990480922</v>
       </c>
       <c r="M18">
-        <v>14.34836128697111</v>
+        <v>10.60483812390976</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.52605172107265</v>
+        <v>14.51763091411089</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.54746068925949</v>
+        <v>13.3223402227181</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.49183135361032</v>
+        <v>6.597853839053426</v>
       </c>
       <c r="E19">
-        <v>16.30437195688482</v>
+        <v>9.652942629789298</v>
       </c>
       <c r="F19">
-        <v>32.08425977873868</v>
+        <v>20.62314354433506</v>
       </c>
       <c r="G19">
-        <v>32.00153520126142</v>
+        <v>22.33550871501442</v>
       </c>
       <c r="H19">
-        <v>15.18570772147933</v>
+        <v>8.900410131591837</v>
       </c>
       <c r="I19">
-        <v>27.51328599710285</v>
+        <v>16.25527970083376</v>
       </c>
       <c r="J19">
-        <v>11.64788499188013</v>
+        <v>7.13706349794117</v>
       </c>
       <c r="K19">
-        <v>10.39603390911926</v>
+        <v>15.1433058557781</v>
       </c>
       <c r="L19">
-        <v>9.318890241198458</v>
+        <v>6.914789230767358</v>
       </c>
       <c r="M19">
-        <v>14.3435638905262</v>
+        <v>10.57577392020473</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.53203708711778</v>
+        <v>14.52122029621618</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.60761593676907</v>
+        <v>13.54926423044201</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.48933621025139</v>
+        <v>6.622689165293918</v>
       </c>
       <c r="E20">
-        <v>16.28937974123646</v>
+        <v>9.616444879077507</v>
       </c>
       <c r="F20">
-        <v>32.05373491238129</v>
+        <v>20.64710175023077</v>
       </c>
       <c r="G20">
-        <v>31.97009222503227</v>
+        <v>22.40886161626634</v>
       </c>
       <c r="H20">
-        <v>15.16977002373798</v>
+        <v>8.875784836177715</v>
       </c>
       <c r="I20">
-        <v>27.47090377296198</v>
+        <v>16.13648590751335</v>
       </c>
       <c r="J20">
-        <v>11.64092304986762</v>
+        <v>7.117200412163344</v>
       </c>
       <c r="K20">
-        <v>10.50557503696384</v>
+        <v>15.36730202963112</v>
       </c>
       <c r="L20">
-        <v>9.333556071271</v>
+        <v>7.001838211739611</v>
       </c>
       <c r="M20">
-        <v>14.36522600000905</v>
+        <v>10.70609789862412</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.50539277190285</v>
+        <v>14.50597414138299</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.80941523664084</v>
+        <v>14.28827314975791</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.48241556804486</v>
+        <v>6.708574841131304</v>
       </c>
       <c r="E21">
-        <v>16.24081257197918</v>
+        <v>9.49715135272935</v>
       </c>
       <c r="F21">
-        <v>31.95870020352593</v>
+        <v>20.75050308895513</v>
       </c>
       <c r="G21">
-        <v>31.87468581864241</v>
+        <v>22.68879656043152</v>
       </c>
       <c r="H21">
-        <v>15.11867837367099</v>
+        <v>8.799808231597805</v>
       </c>
       <c r="I21">
-        <v>27.33327119246331</v>
+        <v>15.74667597039523</v>
       </c>
       <c r="J21">
-        <v>11.61830688090675</v>
+        <v>7.05172463306477</v>
       </c>
       <c r="K21">
-        <v>10.86396241035967</v>
+        <v>16.09731970530617</v>
       </c>
       <c r="L21">
-        <v>9.383602172379307</v>
+        <v>7.288452204112938</v>
       </c>
       <c r="M21">
-        <v>14.43925506139755</v>
+        <v>11.13548330572496</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.42095833143518</v>
+        <v>14.47109802271355</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.94088728859338</v>
+        <v>14.7536165436572</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.47897860526986</v>
+        <v>6.766483673848183</v>
       </c>
       <c r="E22">
-        <v>16.21041172121587</v>
+        <v>9.421677427343472</v>
       </c>
       <c r="F22">
-        <v>31.90220434478407</v>
+        <v>20.83573442568197</v>
       </c>
       <c r="G22">
-        <v>31.81998761434212</v>
+        <v>22.89738553160858</v>
       </c>
       <c r="H22">
-        <v>15.08711646808041</v>
+        <v>8.75542255946516</v>
       </c>
       <c r="I22">
-        <v>27.2468631478571</v>
+        <v>15.49898650201653</v>
       </c>
       <c r="J22">
-        <v>11.60410132242885</v>
+        <v>7.009854380567631</v>
       </c>
       <c r="K22">
-        <v>11.09076649597379</v>
+        <v>16.55740777367997</v>
       </c>
       <c r="L22">
-        <v>9.416855714771057</v>
+        <v>7.471197748941591</v>
       </c>
       <c r="M22">
-        <v>14.48852370751025</v>
+        <v>11.40946254152291</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.36957047887456</v>
+        <v>14.46108316910365</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.8707677164026</v>
+        <v>14.50687807360952</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.48071387081184</v>
+        <v>6.735416799307036</v>
       </c>
       <c r="E23">
-        <v>16.22651484382805</v>
+        <v>9.461730843481108</v>
       </c>
       <c r="F23">
-        <v>31.93184309030726</v>
+        <v>20.78859312975009</v>
       </c>
       <c r="G23">
-        <v>31.8484790616021</v>
+        <v>22.78367093626383</v>
       </c>
       <c r="H23">
-        <v>15.10379436288962</v>
+        <v>8.77861461807916</v>
       </c>
       <c r="I23">
-        <v>27.29265717087307</v>
+        <v>15.63052666410425</v>
       </c>
       <c r="J23">
-        <v>11.61163058671309</v>
+        <v>7.032118152030503</v>
       </c>
       <c r="K23">
-        <v>10.97040972915102</v>
+        <v>16.3134181342305</v>
       </c>
       <c r="L23">
-        <v>9.399059642448691</v>
+        <v>7.374093698126508</v>
       </c>
       <c r="M23">
-        <v>14.46214980920501</v>
+        <v>11.2638623443536</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.3966496734862</v>
+        <v>14.46522064517273</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.604313212855</v>
+        <v>13.53689022402188</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.48946771876681</v>
+        <v>6.621316033474154</v>
       </c>
       <c r="E24">
-        <v>16.29019624176396</v>
+        <v>9.618436632681904</v>
       </c>
       <c r="F24">
-        <v>32.05538290180894</v>
+        <v>20.6457014230138</v>
       </c>
       <c r="G24">
-        <v>31.97178047523373</v>
+        <v>22.40470932722079</v>
       </c>
       <c r="H24">
-        <v>15.17063599895685</v>
+        <v>8.87711227282238</v>
       </c>
       <c r="I24">
-        <v>27.47321324891972</v>
+        <v>16.14297471548186</v>
       </c>
       <c r="J24">
-        <v>11.64130244523279</v>
+        <v>7.118286406503501</v>
       </c>
       <c r="K24">
-        <v>10.49959527432975</v>
+        <v>15.35508560781689</v>
       </c>
       <c r="L24">
-        <v>9.332747720502342</v>
+        <v>6.997079367492633</v>
       </c>
       <c r="M24">
-        <v>14.36403161889647</v>
+        <v>10.69897215776325</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.50683682309417</v>
+        <v>14.50675138300987</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.31629793184839</v>
+        <v>12.41621039145249</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.50359901627106</v>
+        <v>6.506142039402353</v>
       </c>
       <c r="E25">
-        <v>16.36467149089358</v>
+        <v>9.798128601961571</v>
       </c>
       <c r="F25">
-        <v>32.21270289331633</v>
+        <v>20.56353131140124</v>
       </c>
       <c r="G25">
-        <v>32.13748055303582</v>
+        <v>22.10135793547959</v>
       </c>
       <c r="H25">
-        <v>15.25060106608699</v>
+        <v>9.004522926802508</v>
       </c>
       <c r="I25">
-        <v>27.68324385356134</v>
+        <v>16.725348692075</v>
       </c>
       <c r="J25">
-        <v>11.67579324507264</v>
+        <v>7.215308320346973</v>
       </c>
       <c r="K25">
-        <v>9.961413652969313</v>
+        <v>14.24968645145373</v>
       </c>
       <c r="L25">
-        <v>9.263748142039855</v>
+        <v>6.57219890112104</v>
       </c>
       <c r="M25">
-        <v>14.26227842802447</v>
+        <v>10.06333172270557</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.64196077511367</v>
+        <v>14.60258815322815</v>
       </c>
     </row>
   </sheetData>
